--- a/Student Improvement Status.xlsx
+++ b/Student Improvement Status.xlsx
@@ -7,14 +7,39 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gain-Loss Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Breakdown by Student" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="159">
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
   <si>
     <t>Full Name</t>
   </si>
@@ -463,13 +488,7 @@
     <t>PMP</t>
   </si>
   <si>
-    <t>improvement</t>
-  </si>
-  <si>
-    <t>regression</t>
-  </si>
-  <si>
-    <t>same</t>
+    <t>Status</t>
   </si>
   <si>
     <t>Student ID</t>
@@ -540,13 +559,59 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N130" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Status"/>
+    <tableColumn id="2" name="Listening"/>
+    <tableColumn id="3" name="Reading"/>
+    <tableColumn id="4" name="Writing"/>
+    <tableColumn id="5" name="Speaking"/>
+    <tableColumn id="6" name="Overall"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N130" totalsRowShown="0">
   <autoFilter ref="A1:N130"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Student ID"/>
@@ -853,9 +918,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>98</v>
+      </c>
+      <c r="E2">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -864,46 +1028,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -911,43 +1075,43 @@
         <v>2594410</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E2">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="N2" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -955,43 +1119,43 @@
         <v>2599517</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E3">
-        <v>23.1</v>
+        <v>2.7</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N3" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -999,43 +1163,43 @@
         <v>2344128</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E4">
-        <v>75</v>
+        <v>7.2</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1043,43 +1207,43 @@
         <v>2601927</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1087,43 +1251,43 @@
         <v>2553961</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1131,43 +1295,43 @@
         <v>2584455</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E7">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L7" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1175,43 +1339,43 @@
         <v>2625034</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E8">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>-18.2</v>
+        <v>-1.8</v>
       </c>
       <c r="J8" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1219,43 +1383,43 @@
         <v>2582293</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1263,43 +1427,43 @@
         <v>2485579</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N10" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1307,43 +1471,43 @@
         <v>2426234</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>-9.1</v>
+        <v>-0.9</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1351,43 +1515,43 @@
         <v>2592457</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E12">
-        <v>55.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1395,43 +1559,43 @@
         <v>2602045</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>-9.1</v>
+        <v>-0.9</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>-16.7</v>
+        <v>-1.8</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1439,43 +1603,43 @@
         <v>2518173</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E14">
-        <v>-46.7</v>
+        <v>-3.6</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>-8.300000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1483,43 +1647,43 @@
         <v>2609158</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E15">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>-23.1</v>
+        <v>-1.8</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1527,43 +1691,43 @@
         <v>2517600</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E16">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1571,43 +1735,43 @@
         <v>2524474</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E17">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1615,43 +1779,43 @@
         <v>2534306</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>12.5</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>-11.1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>11.1</v>
+        <v>0.9</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1659,43 +1823,43 @@
         <v>2594329</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E19">
-        <v>23.1</v>
+        <v>2.7</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1703,43 +1867,43 @@
         <v>2565927</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E20">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="L20" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1747,43 +1911,43 @@
         <v>2618023</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L21" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1791,43 +1955,43 @@
         <v>2612517</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E22">
-        <v>-10</v>
+        <v>-0.9</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>-9.1</v>
+        <v>-0.9</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1835,43 +1999,43 @@
         <v>2613537</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>22.2</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L23" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1879,43 +2043,43 @@
         <v>2533319</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E24">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>22.2</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>-10</v>
+        <v>-0.9</v>
       </c>
       <c r="J24" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1923,43 +2087,43 @@
         <v>2616856</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>22.2</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L25" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="N25" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1967,43 +2131,43 @@
         <v>2618059</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E26">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>-16.7</v>
+        <v>-1.8</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K26">
-        <v>-15.4</v>
+        <v>-1.8</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2011,43 +2175,43 @@
         <v>2541752</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E27">
-        <v>36.4</v>
+        <v>3.6</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2055,43 +2219,43 @@
         <v>2525000</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N28" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2099,43 +2263,43 @@
         <v>2599342</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2143,43 +2307,43 @@
         <v>2612461</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E30">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>-14.3</v>
+        <v>-0.9</v>
       </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J30" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>-28.6</v>
+        <v>-2.7</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>-7.7</v>
+        <v>-0.9</v>
       </c>
       <c r="N30" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2187,43 +2351,43 @@
         <v>2619654</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J31" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M31">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2231,43 +2395,43 @@
         <v>2598728</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E32">
-        <v>-5.9</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>-11.8</v>
+        <v>-0.9</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>-6.2</v>
+        <v>-0.9</v>
       </c>
       <c r="N32" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2275,43 +2439,43 @@
         <v>2560089</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="L33" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="N33" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2319,43 +2483,43 @@
         <v>2592160</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E34">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>22.2</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>11.1</v>
+        <v>0.9</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="N34" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2363,43 +2527,43 @@
         <v>2584600</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E35">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>22.2</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="L35" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M35">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N35" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2407,43 +2571,43 @@
         <v>2599950</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E36">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J36" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L36" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N36" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2451,43 +2615,43 @@
         <v>2570588</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E37">
-        <v>23.1</v>
+        <v>2.7</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>55.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L37" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="N37" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2495,43 +2659,43 @@
         <v>2595595</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E38">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I38">
-        <v>-7.7</v>
+        <v>-0.9</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K38">
-        <v>-13.3</v>
+        <v>-0.9</v>
       </c>
       <c r="L38" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2539,43 +2703,43 @@
         <v>2598461</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G39">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="L39" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2583,43 +2747,43 @@
         <v>2606430</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E40">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L40" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="N40" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2627,43 +2791,43 @@
         <v>2602055</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E41">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K41">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="L41" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M41">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="N41" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2671,43 +2835,43 @@
         <v>2606944</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>-21.4</v>
+        <v>-1.8</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>-16.7</v>
+        <v>-1.8</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K42">
-        <v>-16.7</v>
+        <v>-1.8</v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M42">
-        <v>-15.4</v>
+        <v>-1.8</v>
       </c>
       <c r="N42" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2715,43 +2879,43 @@
         <v>2595599</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E43">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K43">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L43" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2759,43 +2923,43 @@
         <v>2601562</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E44">
-        <v>23.1</v>
+        <v>3.6</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K44">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="L44" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M44">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="N44" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2803,43 +2967,43 @@
         <v>2613359</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G45">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K45">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L45" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N45" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2847,43 +3011,43 @@
         <v>2457281</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E46">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>75</v>
+        <v>7.2</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J46" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K46">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="L46" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M46">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="N46" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2891,43 +3055,43 @@
         <v>2553008</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K47">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L47" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M47">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N47" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2935,43 +3099,43 @@
         <v>2561843</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I48">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="J48" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="L48" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="N48" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2979,43 +3143,43 @@
         <v>2580188</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K49">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L49" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="N49" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3023,43 +3187,43 @@
         <v>2476383</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J50" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K50">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="L50" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N50" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3067,43 +3231,43 @@
         <v>2550507</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E51">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="J51" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K51">
-        <v>25</v>
+        <v>2.7</v>
       </c>
       <c r="L51" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="N51" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3111,43 +3275,43 @@
         <v>2559075</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M52">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="N52" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3155,43 +3319,43 @@
         <v>2580523</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E53">
-        <v>36.4</v>
+        <v>3.6</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K53">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L53" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M53">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N53" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3199,43 +3363,43 @@
         <v>2585009</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E54">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J54" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K54">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L54" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M54">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N54" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3243,43 +3407,43 @@
         <v>2585955</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E55">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>-9.1</v>
+        <v>-0.9</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K55">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="L55" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M55">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="N55" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3287,43 +3451,43 @@
         <v>2598780</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J56" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K56">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L56" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M56">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="N56" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3331,43 +3495,43 @@
         <v>2541737</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E57">
-        <v>-5.9</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K57">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="L57" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3375,43 +3539,43 @@
         <v>2557844</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E58">
-        <v>-5.9</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="G58">
-        <v>-13.3</v>
+        <v>-0.9</v>
       </c>
       <c r="H58" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I58">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K58">
-        <v>-12.5</v>
+        <v>-0.9</v>
       </c>
       <c r="L58" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M58">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="N58" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3419,43 +3583,43 @@
         <v>2567471</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E59">
-        <v>-22.2</v>
+        <v>-1.8</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G59">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="H59" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M59">
-        <v>-13.3</v>
+        <v>-0.9</v>
       </c>
       <c r="N59" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3463,43 +3627,43 @@
         <v>2570725</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E60">
-        <v>23.1</v>
+        <v>2.7</v>
       </c>
       <c r="F60" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I60">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="J60" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="L60" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="N60" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3507,43 +3671,43 @@
         <v>2579406</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E61">
-        <v>-5.9</v>
+        <v>0.9</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>23.1</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="J61" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K61">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="L61" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="N61" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3551,43 +3715,43 @@
         <v>2580962</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E62">
-        <v>-12.5</v>
+        <v>-0.9</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I62">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K62">
-        <v>-12.5</v>
+        <v>-0.9</v>
       </c>
       <c r="L62" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3595,43 +3759,43 @@
         <v>2582026</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>4.5</v>
       </c>
       <c r="F63" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J63" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L63" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="N63" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3639,43 +3803,43 @@
         <v>2583912</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E64">
-        <v>-11.8</v>
+        <v>-0.9</v>
       </c>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K64">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L64" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M64">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="N64" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3683,43 +3847,43 @@
         <v>2557982</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E65">
-        <v>25</v>
+        <v>2.7</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J65" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L65" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N65" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3727,43 +3891,43 @@
         <v>2559567</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E66">
-        <v>36.4</v>
+        <v>3.6</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="J66" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K66">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L66" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="N66" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3771,43 +3935,43 @@
         <v>2573130</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E67">
-        <v>25</v>
+        <v>2.7</v>
       </c>
       <c r="F67" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J67" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K67">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L67" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="N67" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3815,43 +3979,43 @@
         <v>2579901</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E68">
-        <v>45.5</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="F68" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M68">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="N68" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3859,43 +4023,43 @@
         <v>2586648</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="F69" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="J69" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M69">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="N69" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3903,43 +4067,43 @@
         <v>2590011</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E70">
-        <v>36.4</v>
+        <v>4.5</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J70" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K70">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="L70" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M70">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N70" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3947,43 +4111,43 @@
         <v>2592914</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E71">
-        <v>36.4</v>
+        <v>3.6</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H71" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J71" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L71" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M71">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="N71" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3991,43 +4155,43 @@
         <v>2593391</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>4.5</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="H72" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="J72" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="L72" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="N72" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4035,43 +4199,43 @@
         <v>2531305</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E73">
-        <v>-5.9</v>
+        <v>0.9</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="G73">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="J73" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K73">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L73" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N73" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4079,43 +4243,43 @@
         <v>2557182</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E74">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="F74" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G74">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J74" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>-23.5</v>
+        <v>-1.8</v>
       </c>
       <c r="L74" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4123,43 +4287,43 @@
         <v>2558573</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E75">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="F75" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I75">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J75" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K75">
-        <v>-7.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L75" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M75">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N75" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4167,43 +4331,43 @@
         <v>2560632</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E76">
-        <v>33.3</v>
+        <v>4.5</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G76">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K76">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="L76" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="N76" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4211,43 +4375,43 @@
         <v>2576277</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E77">
-        <v>-11.1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="G77">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K77">
-        <v>-16.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L77" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M77">
-        <v>-6.2</v>
+        <v>-0.9</v>
       </c>
       <c r="N77" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4255,43 +4419,43 @@
         <v>2576286</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E78">
-        <v>-11.1</v>
+        <v>-0.9</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G78">
-        <v>-6.2</v>
+        <v>-0.9</v>
       </c>
       <c r="H78" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="J78" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K78">
-        <v>-6.2</v>
+        <v>-0.9</v>
       </c>
       <c r="L78" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M78">
-        <v>-6.2</v>
+        <v>-0.9</v>
       </c>
       <c r="N78" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4299,43 +4463,43 @@
         <v>2581579</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D79" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E79">
-        <v>-11.8</v>
+        <v>-0.9</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>-13.3</v>
+        <v>-0.9</v>
       </c>
       <c r="H79" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I79">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="J79" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K79">
-        <v>-12.5</v>
+        <v>-0.9</v>
       </c>
       <c r="L79" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M79">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="N79" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4343,43 +4507,43 @@
         <v>2584858</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F80" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="G80">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>23.1</v>
+        <v>2.7</v>
       </c>
       <c r="J80" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K80">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="L80" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="N80" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4387,43 +4551,43 @@
         <v>2586030</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E81">
-        <v>-23.5</v>
+        <v>-1.8</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I81">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J81" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K81">
-        <v>-18.8</v>
+        <v>-1.8</v>
       </c>
       <c r="L81" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M81">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="N81" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4431,43 +4595,43 @@
         <v>2595246</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D82" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E82">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="F82" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G82">
-        <v>-29.4</v>
+        <v>-2.7</v>
       </c>
       <c r="H82" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I82">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J82" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="L82" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M82">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="N82" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4475,43 +4639,43 @@
         <v>2599995</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E83">
-        <v>-6.2</v>
+        <v>-0.9</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G83">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I83">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="J83" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K83">
-        <v>-11.8</v>
+        <v>-0.9</v>
       </c>
       <c r="L83" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M83">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="N83" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4519,43 +4683,43 @@
         <v>2593935</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E84">
-        <v>-5.9</v>
+        <v>0.9</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="G84">
-        <v>-17.6</v>
+        <v>-1.8</v>
       </c>
       <c r="H84" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I84">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="J84" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K84">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L84" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M84">
-        <v>-12.5</v>
+        <v>-0.9</v>
       </c>
       <c r="N84" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4563,43 +4727,43 @@
         <v>2361128</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F85" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="G85">
-        <v>-20</v>
+        <v>-1.8</v>
       </c>
       <c r="H85" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M85">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="N85" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4607,43 +4771,43 @@
         <v>2599303</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E86">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="F86" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4651,43 +4815,43 @@
         <v>2566830</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E87">
-        <v>23.1</v>
+        <v>2.7</v>
       </c>
       <c r="F87" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G87">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I87">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="J87" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K87">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L87" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="N87" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4695,43 +4859,43 @@
         <v>2593930</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E88">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="F88" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J88" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K88">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="L88" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N88" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4739,43 +4903,43 @@
         <v>2599971</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E89">
-        <v>-23.5</v>
+        <v>-1.8</v>
       </c>
       <c r="F89" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G89">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K89">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="L89" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M89">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="N89" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4783,43 +4947,43 @@
         <v>2600749</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D90" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E90">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="F90" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J90" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K90">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L90" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N90" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4827,43 +4991,43 @@
         <v>2597008</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E91">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="F91" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G91">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I91">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J91" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M91">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N91" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4871,43 +5035,43 @@
         <v>2496521</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E92">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="F92" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I92">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J92" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K92">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="L92" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M92">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N92" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4915,43 +5079,43 @@
         <v>2581836</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E93">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="F93" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G93">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I93">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J93" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K93">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L93" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N93" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4959,43 +5123,43 @@
         <v>2546063</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E94">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="F94" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G94">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="H94" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M94">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="N94" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5003,43 +5167,43 @@
         <v>2376377</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D95" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E95">
-        <v>-6.2</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I95">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="J95" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K95">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="L95" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="N95" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5047,43 +5211,43 @@
         <v>2600980</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="F96" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G96">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J96" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K96">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="L96" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N96" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5091,43 +5255,43 @@
         <v>2488188</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E97">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="F97" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G97">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K97">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L97" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M97">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="N97" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5135,43 +5299,43 @@
         <v>2540043</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="F98" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I98">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J98" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K98">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L98" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="N98" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5179,43 +5343,43 @@
         <v>2453915</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E99">
-        <v>60</v>
+        <v>6.3</v>
       </c>
       <c r="F99" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G99">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J99" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K99">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L99" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M99">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="N99" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5223,43 +5387,43 @@
         <v>2590441</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D100" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E100">
-        <v>-11.8</v>
+        <v>-0.9</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G100">
-        <v>-20</v>
+        <v>-1.8</v>
       </c>
       <c r="H100" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I100">
-        <v>-7.7</v>
+        <v>-0.9</v>
       </c>
       <c r="J100" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K100">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L100" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>-13.3</v>
+        <v>-0.9</v>
       </c>
       <c r="N100" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5267,43 +5431,43 @@
         <v>2596744</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E101">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="F101" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G101">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I101">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J101" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M101">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="N101" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5311,43 +5475,43 @@
         <v>2600923</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E102">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="F102" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G102">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J102" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K102">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L102" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N102" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5355,43 +5519,43 @@
         <v>2587299</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C103" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E103">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F103" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J103" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K103">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L103" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N103" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5399,43 +5563,43 @@
         <v>2575719</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E104">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="F104" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K104">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L104" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5443,43 +5607,43 @@
         <v>2441393</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E105">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="F105" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G105">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K105">
-        <v>-13.3</v>
+        <v>-0.9</v>
       </c>
       <c r="L105" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5487,43 +5651,43 @@
         <v>2596869</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D106" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E106">
-        <v>-6.2</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I106">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J106" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K106">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L106" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="N106" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5531,43 +5695,43 @@
         <v>2513067</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E107">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F107" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G107">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="H107" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J107" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K107">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L107" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N107" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5575,43 +5739,43 @@
         <v>2494621</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E108">
-        <v>33.3</v>
+        <v>2.7</v>
       </c>
       <c r="F108" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G108">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J108" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K108">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="L108" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="N108" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5619,43 +5783,43 @@
         <v>2585889</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D109" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E109">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F109" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G109">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J109" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K109">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L109" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M109">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N109" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5663,43 +5827,43 @@
         <v>2510507</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D110" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E110">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="F110" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G110">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I110">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J110" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K110">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L110" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M110">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N110" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5707,43 +5871,43 @@
         <v>2567608</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E111">
-        <v>50</v>
+        <v>4.5</v>
       </c>
       <c r="F111" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G111">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I111">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="J111" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K111">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="L111" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M111">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="N111" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5751,43 +5915,43 @@
         <v>2600043</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E112">
-        <v>23.1</v>
+        <v>3.6</v>
       </c>
       <c r="F112" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G112">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I112">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J112" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K112">
-        <v>50</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="L112" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M112">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="N112" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5795,43 +5959,43 @@
         <v>2597993</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E113">
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="F113" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I113">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J113" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K113">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L113" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M113">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="N113" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5839,43 +6003,43 @@
         <v>2596496</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D114" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E114">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="F114" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G114">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K114">
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="M114">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N114" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5883,43 +6047,43 @@
         <v>2572915</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D115" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G115">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J115" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K115">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="L115" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5927,43 +6091,43 @@
         <v>2540494</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D116" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E116">
-        <v>33.3</v>
+        <v>4.5</v>
       </c>
       <c r="F116" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G116">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J116" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K116">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L116" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M116">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="N116" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5971,43 +6135,43 @@
         <v>2599528</v>
       </c>
       <c r="B117" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D117" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G117">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="K117">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="L117" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6015,43 +6179,43 @@
         <v>2599350</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D118" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E118">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F118" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G118">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I118">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J118" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K118">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="L118" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="N118" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6059,43 +6223,43 @@
         <v>2563758</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E119">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G119">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I119">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J119" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K119">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L119" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N119" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6103,43 +6267,43 @@
         <v>2602335</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E120">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="F120" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I120">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="J120" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K120">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L120" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="N120" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6147,43 +6311,43 @@
         <v>2579125</v>
       </c>
       <c r="B121" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D121" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E121">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F121" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G121">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J121" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K121">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L121" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M121">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N121" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6191,43 +6355,43 @@
         <v>2553980</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D122" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E122">
-        <v>50</v>
+        <v>4.5</v>
       </c>
       <c r="F122" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G122">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I122">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J122" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K122">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L122" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M122">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N122" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6235,43 +6399,43 @@
         <v>2595615</v>
       </c>
       <c r="B123" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D123" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E123">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F123" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G123">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I123">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="J123" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K123">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="L123" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N123" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6279,43 +6443,43 @@
         <v>2474246</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D124" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E124">
-        <v>60</v>
+        <v>7.2</v>
       </c>
       <c r="F124" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G124">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I124">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J124" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K124">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="L124" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N124" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6323,43 +6487,43 @@
         <v>2553976</v>
       </c>
       <c r="B125" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E125">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="F125" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G125">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="J125" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K125">
-        <v>44.4</v>
+        <v>3.6</v>
       </c>
       <c r="L125" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N125" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6367,43 +6531,43 @@
         <v>2554000</v>
       </c>
       <c r="B126" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D126" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E126">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="F126" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="I126">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J126" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K126">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="L126" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M126">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N126" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6411,43 +6575,43 @@
         <v>2595019</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E127">
-        <v>25</v>
+        <v>2.7</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G127">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I127">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J127" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K127">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="L127" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M127">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="N127" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6455,43 +6619,43 @@
         <v>2519419</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C128" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E128">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="F128" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G128">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I128">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="J128" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K128">
-        <v>27.3</v>
+        <v>2.7</v>
       </c>
       <c r="L128" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M128">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="N128" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6499,43 +6663,43 @@
         <v>2541215</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D129" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E129">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="G129">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="I129">
-        <v>18.2</v>
+        <v>1.8</v>
       </c>
       <c r="J129" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="K129">
-        <v>-7.1</v>
+        <v>-0.9</v>
       </c>
       <c r="L129" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M129">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N129" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6543,43 +6707,43 @@
         <v>2589578</v>
       </c>
       <c r="B130" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D130" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E130">
-        <v>-11.8</v>
+        <v>-0.9</v>
       </c>
       <c r="F130" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G130">
-        <v>-13.3</v>
+        <v>-0.9</v>
       </c>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I130">
-        <v>-12.5</v>
+        <v>-0.9</v>
       </c>
       <c r="J130" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="K130">
-        <v>-5.9</v>
+        <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="M130">
-        <v>-12.5</v>
+        <v>-0.9</v>
       </c>
       <c r="N130" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6605,6 +6769,17 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:N130">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"gain"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"loss"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>"no change"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G130">

--- a/Student Improvement Status.xlsx
+++ b/Student Improvement Status.xlsx
@@ -559,38 +559,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -6771,17 +6740,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:N130">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>"gain"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"loss"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"no change"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G130">
     <cfRule type="colorScale" priority="3">
       <colorScale>

--- a/Student Improvement Status.xlsx
+++ b/Student Improvement Status.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Gain-Loss Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Breakdown by Student" sheetId="2" r:id="rId2"/>
+    <sheet name="Charts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
   <si>
     <t>Listening</t>
   </si>
@@ -50,169 +51,169 @@
     <t>programme</t>
   </si>
   <si>
-    <t>% Listening Change</t>
-  </si>
-  <si>
-    <t>listening_status</t>
-  </si>
-  <si>
-    <t>% Reading Change</t>
-  </si>
-  <si>
-    <t>reading_status</t>
-  </si>
-  <si>
-    <t>% Writing Change</t>
-  </si>
-  <si>
-    <t>writing_status</t>
-  </si>
-  <si>
-    <t>% Speaking Chnage</t>
-  </si>
-  <si>
-    <t>speaking_status</t>
-  </si>
-  <si>
-    <t>% Overall Change</t>
-  </si>
-  <si>
-    <t>overall_status</t>
+    <t>Initial Listening IELTS</t>
+  </si>
+  <si>
+    <t>Listening Band Change</t>
+  </si>
+  <si>
+    <t>Initial Reading IELTS</t>
+  </si>
+  <si>
+    <t>Reading Band Change</t>
+  </si>
+  <si>
+    <t>Initial Writing IELTS</t>
+  </si>
+  <si>
+    <t>Writing Band Change</t>
+  </si>
+  <si>
+    <t>Initial Speaking IELTS</t>
+  </si>
+  <si>
+    <t>Speaking Band Change</t>
+  </si>
+  <si>
+    <t>Initial Overall IELTS</t>
+  </si>
+  <si>
+    <t>Overall Band Change</t>
   </si>
   <si>
     <t>student_id</t>
   </si>
   <si>
+    <t>Qinxin Gong</t>
+  </si>
+  <si>
+    <t>Ziqi ZHANG</t>
+  </si>
+  <si>
+    <t>Chengcai WU</t>
+  </si>
+  <si>
+    <t>Anas Mohammed BUGSHAN</t>
+  </si>
+  <si>
+    <t>Khalid Abdulaziz A A AL-MOHANNADI</t>
+  </si>
+  <si>
+    <t>Nusrat Hassan CHOUDHURY</t>
+  </si>
+  <si>
+    <t>Mina Lydia MOUHOUB</t>
+  </si>
+  <si>
+    <t>Yifan MA</t>
+  </si>
+  <si>
+    <t>Taimour Hassan PIRACHA</t>
+  </si>
+  <si>
+    <t>Fanjie SUN</t>
+  </si>
+  <si>
+    <t>Ruobing MENG</t>
+  </si>
+  <si>
+    <t>Yuliang ZOU</t>
+  </si>
+  <si>
+    <t>Devam Apurva PATEL</t>
+  </si>
+  <si>
     <t>Yitao CAO</t>
   </si>
   <si>
     <t>Yiqing CHEN</t>
   </si>
   <si>
-    <t>Qinxin Gong</t>
-  </si>
-  <si>
     <t>Haoze LI</t>
   </si>
   <si>
-    <t>Yifan MA</t>
-  </si>
-  <si>
-    <t>Ruobing MENG</t>
+    <t>Haicheng ZHAO</t>
+  </si>
+  <si>
+    <t>Jibran ASIM</t>
   </si>
   <si>
     <t>Deepak Parkash</t>
   </si>
   <si>
-    <t>Fanjie SUN</t>
-  </si>
-  <si>
-    <t>Chengcai WU</t>
-  </si>
-  <si>
-    <t>Ziqi ZHANG</t>
-  </si>
-  <si>
-    <t>Yuliang ZOU</t>
-  </si>
-  <si>
-    <t>Haicheng ZHAO</t>
-  </si>
-  <si>
-    <t>Khalid Abdulaziz A A AL-MOHANNADI</t>
-  </si>
-  <si>
-    <t>Jibran ASIM</t>
-  </si>
-  <si>
-    <t>Anas Mohammed BUGSHAN</t>
-  </si>
-  <si>
-    <t>Nusrat Hassan CHOUDHURY</t>
-  </si>
-  <si>
-    <t>Mina Lydia MOUHOUB</t>
-  </si>
-  <si>
-    <t>Devam Apurva PATEL</t>
-  </si>
-  <si>
-    <t>Taimour Hassan PIRACHA</t>
+    <t>Ragad ALMAZROEI</t>
+  </si>
+  <si>
+    <t>Suliman ALARIFI</t>
+  </si>
+  <si>
+    <t>Hussain ALMAQBUL</t>
+  </si>
+  <si>
+    <t>JIAHAN CAI</t>
+  </si>
+  <si>
+    <t>Varanya INTAPHAN</t>
+  </si>
+  <si>
+    <t>Neha Fayyaz CHATTHA</t>
+  </si>
+  <si>
+    <t>AHMET Ceylan</t>
+  </si>
+  <si>
+    <t>Muhammad Suleman KHAN</t>
+  </si>
+  <si>
+    <t>Charlotte YANG</t>
+  </si>
+  <si>
+    <t>Syed Ali Baqir KIRMANI</t>
+  </si>
+  <si>
+    <t>Alina BICHIEVA</t>
+  </si>
+  <si>
+    <t>Alyazia Mubarak ALi Rashed ALMAZROUEI</t>
+  </si>
+  <si>
+    <t>Yixi HE</t>
+  </si>
+  <si>
+    <t>Michelle Marina ZAMBRANO VILLARREAL</t>
+  </si>
+  <si>
+    <t>Bright David OSEGHALE</t>
+  </si>
+  <si>
+    <t>Shafay MUHAMMAD</t>
+  </si>
+  <si>
+    <t>Pak Tim Dexter WONG</t>
+  </si>
+  <si>
+    <t>Shahla ALSAYYAR</t>
+  </si>
+  <si>
+    <t>Rotana AJEME</t>
+  </si>
+  <si>
+    <t>ZHILIN ZHENG</t>
+  </si>
+  <si>
+    <t>Rawan Khalid A AJEME</t>
+  </si>
+  <si>
+    <t>Orjwan ALASIRI</t>
   </si>
   <si>
     <t>Noor Arshad D ABED</t>
   </si>
   <si>
-    <t>Rotana AJEME</t>
-  </si>
-  <si>
-    <t>Rawan Khalid A AJEME</t>
-  </si>
-  <si>
-    <t>Suliman ALARIFI</t>
-  </si>
-  <si>
-    <t>Orjwan ALASIRI</t>
-  </si>
-  <si>
     <t>Talal ALHARBY</t>
   </si>
   <si>
-    <t>Hussain ALMAQBUL</t>
-  </si>
-  <si>
-    <t>Ragad ALMAZROEI</t>
-  </si>
-  <si>
-    <t>Alyazia Mubarak ALi Rashed ALMAZROUEI</t>
-  </si>
-  <si>
-    <t>Shahla ALSAYYAR</t>
-  </si>
-  <si>
     <t>Abdulrahman Fawzi A ALSULAIMANI</t>
-  </si>
-  <si>
-    <t>Alina BICHIEVA</t>
-  </si>
-  <si>
-    <t>JIAHAN CAI</t>
-  </si>
-  <si>
-    <t>AHMET Ceylan</t>
-  </si>
-  <si>
-    <t>Neha Fayyaz CHATTHA</t>
-  </si>
-  <si>
-    <t>Yixi HE</t>
-  </si>
-  <si>
-    <t>Varanya INTAPHAN</t>
-  </si>
-  <si>
-    <t>Muhammad Suleman KHAN</t>
-  </si>
-  <si>
-    <t>Syed Ali Baqir KIRMANI</t>
-  </si>
-  <si>
-    <t>Shafay MUHAMMAD</t>
-  </si>
-  <si>
-    <t>Bright David OSEGHALE</t>
-  </si>
-  <si>
-    <t>Pak Tim Dexter WONG</t>
-  </si>
-  <si>
-    <t>Charlotte YANG</t>
-  </si>
-  <si>
-    <t>Michelle Marina ZAMBRANO VILLARREAL</t>
-  </si>
-  <si>
-    <t>ZHILIN ZHENG</t>
   </si>
   <si>
     <t>Ahmed ALDEREI</t>
@@ -564,6 +565,201 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="IELTS vs AES - Listening.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5485714" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="IELTS vs AES - Reading.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="5485714" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="IELTS vs AES - Writing.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="5485714" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="IELTS vs AES - Speaking.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3810000"/>
+          <a:ext cx="5485714" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="average gain-loss IELTS.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="0"/>
+          <a:ext cx="5485714" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0">
   <autoFilter ref="A1:F4"/>
@@ -587,16 +783,16 @@
     <tableColumn id="2" name="Full Name"/>
     <tableColumn id="3" name="cohort"/>
     <tableColumn id="4" name="programme"/>
-    <tableColumn id="5" name="% Listening Change"/>
-    <tableColumn id="6" name="listening_status"/>
-    <tableColumn id="7" name="% Reading Change"/>
-    <tableColumn id="8" name="reading_status"/>
-    <tableColumn id="9" name="% Writing Change"/>
-    <tableColumn id="10" name="writing_status"/>
-    <tableColumn id="11" name="% Speaking Chnage"/>
-    <tableColumn id="12" name="speaking_status"/>
-    <tableColumn id="13" name="% Overall Change"/>
-    <tableColumn id="14" name="overall_status"/>
+    <tableColumn id="5" name="Initial Listening IELTS"/>
+    <tableColumn id="6" name="Listening Band Change"/>
+    <tableColumn id="7" name="Initial Reading IELTS"/>
+    <tableColumn id="8" name="Reading Band Change"/>
+    <tableColumn id="9" name="Initial Writing IELTS"/>
+    <tableColumn id="10" name="Writing Band Change"/>
+    <tableColumn id="11" name="Initial Speaking IELTS"/>
+    <tableColumn id="12" name="Speaking Band Change"/>
+    <tableColumn id="13" name="Initial Overall IELTS"/>
+    <tableColumn id="14" name="Overall Band Change"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -924,16 +1120,16 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -944,16 +1140,16 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -964,16 +1160,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>22</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1237,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>2594410</v>
+        <v>2344128</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -1053,39 +1249,39 @@
         <v>154</v>
       </c>
       <c r="E2">
-        <v>3.6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>2.7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3.6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>2.7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="L2">
+        <v>1.5</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>2599517</v>
+        <v>2426234</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1097,39 +1293,39 @@
         <v>154</v>
       </c>
       <c r="E3">
-        <v>2.7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="H3">
+        <v>-0.5</v>
       </c>
       <c r="I3">
-        <v>0.9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>2344128</v>
+        <v>2485579</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1141,39 +1337,39 @@
         <v>154</v>
       </c>
       <c r="E4">
-        <v>7.2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3.6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1.5</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>2601927</v>
+        <v>2517600</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1185,39 +1381,39 @@
         <v>154</v>
       </c>
       <c r="E5">
-        <v>3.6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1.8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>2553961</v>
+        <v>2518173</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1229,39 +1425,39 @@
         <v>154</v>
       </c>
       <c r="E6">
-        <v>2.7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>2.7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>1.8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>1.8</v>
-      </c>
-      <c r="N6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>2584455</v>
+        <v>2524474</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1273,39 +1469,39 @@
         <v>154</v>
       </c>
       <c r="E7">
-        <v>3.6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>3.6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1.8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>2.7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.7</v>
-      </c>
-      <c r="N7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>2625034</v>
+        <v>2534306</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1317,39 +1513,39 @@
         <v>154</v>
       </c>
       <c r="E8">
-        <v>1.8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1.5</v>
       </c>
       <c r="G8">
-        <v>2.7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>-1.8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
+        <v>4.5</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>7</v>
+        <v>4.5</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>2582293</v>
+        <v>2553961</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1361,39 +1557,39 @@
         <v>154</v>
       </c>
       <c r="E9">
-        <v>4.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
       </c>
       <c r="G9">
-        <v>2.7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1.5</v>
       </c>
       <c r="I9">
-        <v>3.6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1.5</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
-      </c>
-      <c r="N9" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>2485579</v>
+        <v>2565927</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1405,39 +1601,39 @@
         <v>154</v>
       </c>
       <c r="E10">
-        <v>3.6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F10">
+        <v>1.5</v>
       </c>
       <c r="G10">
-        <v>2.7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>1.8</v>
-      </c>
-      <c r="N10" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>2426234</v>
+        <v>2582293</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -1449,39 +1645,39 @@
         <v>154</v>
       </c>
       <c r="E11">
-        <v>1.8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2.5</v>
       </c>
       <c r="G11">
-        <v>-0.9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>1.5</v>
       </c>
       <c r="I11">
-        <v>1.8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>2592457</v>
+        <v>2584455</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1493,39 +1689,39 @@
         <v>154</v>
       </c>
       <c r="E12">
-        <v>5.399999999999999</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>1.8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1.8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>2.7</v>
-      </c>
-      <c r="L12" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1.5</v>
       </c>
       <c r="M12">
-        <v>2.7</v>
-      </c>
-      <c r="N12" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>2602045</v>
+        <v>2592457</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1537,39 +1733,39 @@
         <v>154</v>
       </c>
       <c r="E13">
-        <v>2.7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
       </c>
       <c r="G13">
-        <v>-0.9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>-1.8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>2.7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="L13">
+        <v>1.5</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>2518173</v>
+        <v>2594329</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1581,39 +1777,39 @@
         <v>154</v>
       </c>
       <c r="E14">
-        <v>-3.6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0.9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>1.5</v>
       </c>
       <c r="I14">
-        <v>0.9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1.5</v>
       </c>
       <c r="K14">
-        <v>0.9</v>
-      </c>
-      <c r="L14" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>-0.9</v>
-      </c>
-      <c r="N14" t="s">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>2609158</v>
+        <v>2594410</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1625,39 +1821,39 @@
         <v>154</v>
       </c>
       <c r="E15">
-        <v>1.8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>-1.8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1.5</v>
       </c>
       <c r="I15">
-        <v>1.8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>2517600</v>
+        <v>2599517</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -1669,39 +1865,39 @@
         <v>154</v>
       </c>
       <c r="E16">
-        <v>0.9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>1.8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9</v>
-      </c>
-      <c r="N16" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>2524474</v>
+        <v>2601927</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -1713,39 +1909,39 @@
         <v>154</v>
       </c>
       <c r="E17">
-        <v>0.9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3.6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>1.5</v>
       </c>
       <c r="I17">
-        <v>0.9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>1.5</v>
       </c>
       <c r="M17">
-        <v>0.9</v>
-      </c>
-      <c r="N17" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>2534306</v>
+        <v>2602045</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -1757,39 +1953,39 @@
         <v>154</v>
       </c>
       <c r="E18">
-        <v>1.8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
       </c>
       <c r="G18">
-        <v>0.9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9</v>
-      </c>
-      <c r="L18" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="L18">
+        <v>1.5</v>
       </c>
       <c r="M18">
-        <v>0.9</v>
-      </c>
-      <c r="N18" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N18">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>2594329</v>
+        <v>2609158</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -1801,39 +1997,39 @@
         <v>154</v>
       </c>
       <c r="E19">
-        <v>2.7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.7</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.7</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>1.8</v>
-      </c>
-      <c r="L19" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
-      </c>
-      <c r="N19" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>2565927</v>
+        <v>2625034</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1845,39 +2041,39 @@
         <v>154</v>
       </c>
       <c r="E20">
-        <v>1.8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0.9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9</v>
-      </c>
-      <c r="L20" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.9</v>
-      </c>
-      <c r="N20" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N20">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>2618023</v>
+        <v>2525000</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -1889,39 +2085,39 @@
         <v>155</v>
       </c>
       <c r="E21">
-        <v>3.6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0.9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.9</v>
-      </c>
-      <c r="L21" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.8</v>
-      </c>
-      <c r="N21" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>2612517</v>
+        <v>2533319</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -1933,39 +2129,39 @@
         <v>155</v>
       </c>
       <c r="E22">
-        <v>-0.9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
       </c>
       <c r="G22">
-        <v>1.8</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>-0.9</v>
-      </c>
-      <c r="J22" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="N22">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>2613537</v>
+        <v>2541752</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -1977,39 +2173,39 @@
         <v>155</v>
       </c>
       <c r="E23">
-        <v>2.7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>1.8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H23">
+        <v>1.5</v>
       </c>
       <c r="I23">
-        <v>0.9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>1.5</v>
       </c>
       <c r="K23">
-        <v>0.9</v>
-      </c>
-      <c r="L23" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
-      </c>
-      <c r="N23" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N23">
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>2533319</v>
+        <v>2560089</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
@@ -2021,39 +2217,39 @@
         <v>155</v>
       </c>
       <c r="E24">
-        <v>2.7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>-0.9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>7</v>
+        <v>4.5</v>
+      </c>
+      <c r="L24">
+        <v>1.5</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>2616856</v>
+        <v>2570588</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
@@ -2065,39 +2261,39 @@
         <v>155</v>
       </c>
       <c r="E25">
-        <v>2.7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>1.8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="H25">
+        <v>2.5</v>
       </c>
       <c r="I25">
-        <v>1.8</v>
-      </c>
-      <c r="J25" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
-      </c>
-      <c r="L25" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
-      </c>
-      <c r="N25" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>2618059</v>
+        <v>2584600</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
@@ -2109,39 +2305,39 @@
         <v>155</v>
       </c>
       <c r="E26">
-        <v>1.8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>-1.8</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
+        <v>4.5</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
         <v>7</v>
       </c>
-      <c r="K26">
-        <v>-1.8</v>
-      </c>
-      <c r="L26" t="s">
-        <v>6</v>
+      <c r="L26">
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>2541752</v>
+        <v>2592160</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
@@ -2153,39 +2349,39 @@
         <v>155</v>
       </c>
       <c r="E27">
-        <v>3.6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="F27">
+        <v>1.5</v>
       </c>
       <c r="G27">
-        <v>2.7</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="H27">
+        <v>1.5</v>
       </c>
       <c r="I27">
-        <v>2.7</v>
-      </c>
-      <c r="J27" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="J27">
+        <v>1.5</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
-      </c>
-      <c r="L27" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
-      </c>
-      <c r="N27" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>2525000</v>
+        <v>2595595</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
@@ -2197,39 +2393,39 @@
         <v>155</v>
       </c>
       <c r="E28">
-        <v>2.7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>3.6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J28">
+        <v>-0.5</v>
       </c>
       <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>7</v>
+        <v>7.5</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
       </c>
       <c r="M28">
-        <v>1.8</v>
-      </c>
-      <c r="N28" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>2599342</v>
+        <v>2595599</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
@@ -2241,39 +2437,39 @@
         <v>155</v>
       </c>
       <c r="E29">
-        <v>1.8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>-0.9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
       </c>
       <c r="I29">
-        <v>0.9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="L29">
+        <v>-0.5</v>
+      </c>
+      <c r="M29">
         <v>7</v>
       </c>
-      <c r="M29">
-        <v>0.9</v>
-      </c>
-      <c r="N29" t="s">
-        <v>5</v>
+      <c r="N29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>2612461</v>
+        <v>2598461</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -2285,39 +2481,39 @@
         <v>155</v>
       </c>
       <c r="E30">
-        <v>1.8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.9</v>
-      </c>
-      <c r="H30" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>-0.5</v>
       </c>
       <c r="I30">
-        <v>0.9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J30">
+        <v>0.5</v>
       </c>
       <c r="K30">
-        <v>-2.7</v>
-      </c>
-      <c r="L30" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <v>0.5</v>
       </c>
       <c r="M30">
-        <v>-0.9</v>
-      </c>
-      <c r="N30" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>2619654</v>
+        <v>2598728</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -2329,39 +2525,39 @@
         <v>155</v>
       </c>
       <c r="E31">
-        <v>1.8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>5</v>
+        <v>8.5</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>3.6</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
+        <v>8.5</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>0.9</v>
-      </c>
-      <c r="J31" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
         <v>7</v>
       </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
       <c r="M31">
-        <v>0.9</v>
-      </c>
-      <c r="N31" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>2598728</v>
+        <v>2599342</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -2373,39 +2569,39 @@
         <v>155</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>1.5</v>
+      </c>
+      <c r="G32">
         <v>7</v>
       </c>
-      <c r="G32">
-        <v>-0.9</v>
-      </c>
-      <c r="H32" t="s">
-        <v>6</v>
+      <c r="H32">
+        <v>-0.5</v>
       </c>
       <c r="I32">
-        <v>0.9</v>
-      </c>
-      <c r="J32" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.9</v>
-      </c>
-      <c r="L32" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-0.9</v>
-      </c>
-      <c r="N32" t="s">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="N32">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>2560089</v>
+        <v>2599950</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -2417,39 +2613,39 @@
         <v>155</v>
       </c>
       <c r="E33">
-        <v>1.8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F33">
+        <v>1.5</v>
       </c>
       <c r="G33">
-        <v>1.8</v>
-      </c>
-      <c r="H33" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H33">
+        <v>1.5</v>
       </c>
       <c r="I33">
-        <v>1.8</v>
-      </c>
-      <c r="J33" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
       </c>
       <c r="K33">
-        <v>2.7</v>
-      </c>
-      <c r="L33" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>1.8</v>
-      </c>
-      <c r="N33" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>2592160</v>
+        <v>2601562</v>
       </c>
       <c r="B34" t="s">
         <v>54</v>
@@ -2461,39 +2657,39 @@
         <v>155</v>
       </c>
       <c r="E34">
-        <v>2.7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F34">
+        <v>2.5</v>
       </c>
       <c r="G34">
-        <v>1.8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0.9</v>
-      </c>
-      <c r="J34" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.9</v>
-      </c>
-      <c r="N34" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>2584600</v>
+        <v>2602055</v>
       </c>
       <c r="B35" t="s">
         <v>55</v>
@@ -2505,39 +2701,39 @@
         <v>155</v>
       </c>
       <c r="E35">
-        <v>1.8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="F35">
+        <v>-0.5</v>
       </c>
       <c r="G35">
-        <v>1.8</v>
-      </c>
-      <c r="H35" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0.9</v>
-      </c>
-      <c r="J35" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.9</v>
-      </c>
-      <c r="L35" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>-0.5</v>
       </c>
       <c r="M35">
-        <v>0.9</v>
-      </c>
-      <c r="N35" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="N35">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>2599950</v>
+        <v>2606430</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
@@ -2549,39 +2745,39 @@
         <v>155</v>
       </c>
       <c r="E36">
-        <v>2.7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.7</v>
-      </c>
-      <c r="H36" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0.9</v>
-      </c>
-      <c r="J36" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
-      </c>
-      <c r="L36" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>0.5</v>
       </c>
       <c r="M36">
-        <v>1.8</v>
-      </c>
-      <c r="N36" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N36">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>2570588</v>
+        <v>2606944</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -2593,39 +2789,39 @@
         <v>155</v>
       </c>
       <c r="E37">
-        <v>2.7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>5.399999999999999</v>
-      </c>
-      <c r="H37" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>-1.5</v>
       </c>
       <c r="I37">
-        <v>1.8</v>
-      </c>
-      <c r="J37" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
       </c>
       <c r="K37">
-        <v>0.9</v>
-      </c>
-      <c r="L37" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
       </c>
       <c r="M37">
-        <v>1.8</v>
-      </c>
-      <c r="N37" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="N37">
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>2595595</v>
+        <v>2612461</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
@@ -2637,39 +2833,39 @@
         <v>155</v>
       </c>
       <c r="E38">
-        <v>1.8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
         <v>7</v>
       </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
       <c r="I38">
-        <v>-0.9</v>
-      </c>
-      <c r="J38" t="s">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
       </c>
       <c r="K38">
-        <v>-0.9</v>
-      </c>
-      <c r="L38" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
       </c>
       <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>2598461</v>
+        <v>2612517</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -2681,39 +2877,39 @@
         <v>155</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>-0.5</v>
       </c>
       <c r="G39">
-        <v>-0.9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0.9</v>
-      </c>
-      <c r="J39" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0.9</v>
-      </c>
-      <c r="L39" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>2606430</v>
+        <v>2613359</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
@@ -2725,39 +2921,39 @@
         <v>155</v>
       </c>
       <c r="E40">
-        <v>1.8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1.8</v>
-      </c>
-      <c r="H40" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
       </c>
       <c r="I40">
-        <v>0.9</v>
-      </c>
-      <c r="J40" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>1.5</v>
       </c>
       <c r="K40">
-        <v>0.9</v>
-      </c>
-      <c r="L40" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>0.9</v>
-      </c>
-      <c r="N40" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>2602055</v>
+        <v>2613537</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
@@ -2769,39 +2965,39 @@
         <v>155</v>
       </c>
       <c r="E41">
-        <v>-0.9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>1.5</v>
       </c>
       <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>7</v>
+        <v>4.5</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
       </c>
       <c r="K41">
-        <v>-0.9</v>
-      </c>
-      <c r="L41" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>0.5</v>
       </c>
       <c r="M41">
-        <v>-0.9</v>
-      </c>
-      <c r="N41" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>2606944</v>
+        <v>2616856</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
@@ -2813,39 +3009,39 @@
         <v>155</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>1.5</v>
       </c>
       <c r="G42">
-        <v>-1.8</v>
-      </c>
-      <c r="H42" t="s">
-        <v>6</v>
+        <v>4.5</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>-1.8</v>
-      </c>
-      <c r="J42" t="s">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>-1.8</v>
-      </c>
-      <c r="L42" t="s">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>-1.8</v>
-      </c>
-      <c r="N42" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>2595599</v>
+        <v>2618023</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -2857,39 +3053,39 @@
         <v>155</v>
       </c>
       <c r="E43">
-        <v>0.9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>0.9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1.8</v>
-      </c>
-      <c r="J43" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
       </c>
       <c r="K43">
-        <v>-0.9</v>
-      </c>
-      <c r="L43" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="L43">
+        <v>0.5</v>
       </c>
       <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>2601562</v>
+        <v>2618059</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
@@ -2901,39 +3097,39 @@
         <v>155</v>
       </c>
       <c r="E44">
-        <v>3.6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>1.8</v>
-      </c>
-      <c r="H44" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>-0.5</v>
       </c>
       <c r="I44">
-        <v>0.9</v>
-      </c>
-      <c r="J44" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1.8</v>
-      </c>
-      <c r="L44" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L44">
+        <v>0.5</v>
       </c>
       <c r="M44">
-        <v>0.9</v>
-      </c>
-      <c r="N44" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>2613359</v>
+        <v>2619654</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
@@ -2945,34 +3141,34 @@
         <v>155</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>1.5</v>
       </c>
       <c r="G45">
-        <v>0.9</v>
-      </c>
-      <c r="H45" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>2.7</v>
-      </c>
-      <c r="J45" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
       </c>
       <c r="K45">
-        <v>1.8</v>
-      </c>
-      <c r="L45" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0.9</v>
-      </c>
-      <c r="N45" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N45">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2989,34 +3185,34 @@
         <v>155</v>
       </c>
       <c r="E46">
-        <v>3.6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>7.2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>1.8</v>
-      </c>
-      <c r="J46" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
-      </c>
-      <c r="L46" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>3.6</v>
-      </c>
-      <c r="N46" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3033,34 +3229,34 @@
         <v>155</v>
       </c>
       <c r="E47">
-        <v>2.7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>1.5</v>
       </c>
       <c r="G47">
-        <v>2.7</v>
-      </c>
-      <c r="H47" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H47">
+        <v>1.5</v>
       </c>
       <c r="I47">
-        <v>0.9</v>
-      </c>
-      <c r="J47" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J47">
+        <v>0.5</v>
       </c>
       <c r="K47">
-        <v>2.7</v>
-      </c>
-      <c r="L47" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>1.5</v>
       </c>
       <c r="M47">
-        <v>1.8</v>
-      </c>
-      <c r="N47" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3077,34 +3273,34 @@
         <v>155</v>
       </c>
       <c r="E48">
-        <v>5.399999999999999</v>
-      </c>
-      <c r="F48" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>2.7</v>
-      </c>
-      <c r="H48" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H48">
+        <v>1.5</v>
       </c>
       <c r="I48">
-        <v>2.7</v>
-      </c>
-      <c r="J48" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J48">
+        <v>1.5</v>
       </c>
       <c r="K48">
-        <v>3.6</v>
-      </c>
-      <c r="L48" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
-      </c>
-      <c r="N48" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3121,34 +3317,34 @@
         <v>155</v>
       </c>
       <c r="E49">
-        <v>0.9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
-      </c>
-      <c r="L49" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0.9</v>
-      </c>
-      <c r="N49" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3165,34 +3361,34 @@
         <v>155</v>
       </c>
       <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
         <v>7</v>
       </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
       <c r="G50">
-        <v>2.7</v>
-      </c>
-      <c r="H50" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>1.5</v>
       </c>
       <c r="I50">
-        <v>1.8</v>
-      </c>
-      <c r="J50" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0.9</v>
-      </c>
-      <c r="L50" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L50">
+        <v>0.5</v>
       </c>
       <c r="M50">
-        <v>1.8</v>
-      </c>
-      <c r="N50" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3209,34 +3405,34 @@
         <v>155</v>
       </c>
       <c r="E51">
-        <v>1.8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F51">
+        <v>1.5</v>
       </c>
       <c r="G51">
-        <v>2.7</v>
-      </c>
-      <c r="H51" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H51">
+        <v>1.5</v>
       </c>
       <c r="I51">
-        <v>1.8</v>
-      </c>
-      <c r="J51" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>2.7</v>
-      </c>
-      <c r="L51" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>1.8</v>
-      </c>
-      <c r="N51" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3253,34 +3449,34 @@
         <v>155</v>
       </c>
       <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>3.6</v>
-      </c>
-      <c r="H52" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>0.9</v>
-      </c>
-      <c r="N52" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3297,34 +3493,34 @@
         <v>155</v>
       </c>
       <c r="E53">
-        <v>3.6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>1.8</v>
-      </c>
-      <c r="H53" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1.8</v>
-      </c>
-      <c r="L53" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>1.8</v>
-      </c>
-      <c r="N53" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3341,34 +3537,34 @@
         <v>155</v>
       </c>
       <c r="E54">
-        <v>2.7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F54">
+        <v>1.5</v>
       </c>
       <c r="G54">
-        <v>1.8</v>
-      </c>
-      <c r="H54" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0.9</v>
-      </c>
-      <c r="J54" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J54">
+        <v>0.5</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
-      </c>
-      <c r="L54" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>1.8</v>
-      </c>
-      <c r="N54" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3385,34 +3581,34 @@
         <v>155</v>
       </c>
       <c r="E55">
-        <v>2.7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F55">
+        <v>1.5</v>
       </c>
       <c r="G55">
-        <v>0.9</v>
-      </c>
-      <c r="H55" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H55">
+        <v>0.5</v>
       </c>
       <c r="I55">
-        <v>-0.9</v>
-      </c>
-      <c r="J55" t="s">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="J55">
+        <v>-0.5</v>
       </c>
       <c r="K55">
-        <v>0.9</v>
-      </c>
-      <c r="L55" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L55">
+        <v>0.5</v>
       </c>
       <c r="M55">
-        <v>0.9</v>
-      </c>
-      <c r="N55" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N55">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3429,34 +3625,34 @@
         <v>155</v>
       </c>
       <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
         <v>7</v>
       </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
       <c r="G56">
-        <v>2.7</v>
-      </c>
-      <c r="H56" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>1.5</v>
       </c>
       <c r="I56">
-        <v>0.9</v>
-      </c>
-      <c r="J56" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>0.5</v>
       </c>
       <c r="K56">
-        <v>1.8</v>
-      </c>
-      <c r="L56" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>1.8</v>
-      </c>
-      <c r="N56" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3473,34 +3669,34 @@
         <v>155</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
+        <v>8.5</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>7</v>
       </c>
-      <c r="G57">
-        <v>0.9</v>
-      </c>
-      <c r="H57" t="s">
-        <v>5</v>
+      <c r="H57">
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
         <v>7</v>
       </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
       <c r="K57">
-        <v>1.8</v>
-      </c>
-      <c r="L57" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
-        <v>7</v>
+        <v>7.5</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3517,34 +3713,34 @@
         <v>155</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
-        <v>7</v>
+        <v>8.5</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>-0.9</v>
-      </c>
-      <c r="H58" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="H58">
+        <v>-1</v>
       </c>
       <c r="I58">
-        <v>0.9</v>
-      </c>
-      <c r="J58" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
       </c>
       <c r="K58">
-        <v>-0.9</v>
-      </c>
-      <c r="L58" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <v>-1</v>
       </c>
       <c r="M58">
-        <v>-0.9</v>
-      </c>
-      <c r="N58" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="N58">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3561,34 +3757,34 @@
         <v>155</v>
       </c>
       <c r="E59">
-        <v>-1.8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>-2</v>
       </c>
       <c r="G59">
-        <v>-0.9</v>
-      </c>
-      <c r="H59" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>-0.5</v>
       </c>
       <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>-0.9</v>
-      </c>
-      <c r="N59" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="N59">
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3605,34 +3801,34 @@
         <v>155</v>
       </c>
       <c r="E60">
-        <v>2.7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>7</v>
+        <v>7.5</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1.8</v>
-      </c>
-      <c r="J60" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1.8</v>
-      </c>
-      <c r="L60" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>1.8</v>
-      </c>
-      <c r="N60" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3649,34 +3845,34 @@
         <v>155</v>
       </c>
       <c r="E61">
-        <v>0.9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>5</v>
+        <v>8.5</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
       </c>
       <c r="G61">
-        <v>2.7</v>
-      </c>
-      <c r="H61" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1.8</v>
-      </c>
-      <c r="J61" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J61">
+        <v>1.5</v>
       </c>
       <c r="K61">
-        <v>0.9</v>
-      </c>
-      <c r="L61" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>0.5</v>
       </c>
       <c r="M61">
-        <v>0.9</v>
-      </c>
-      <c r="N61" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3693,34 +3889,34 @@
         <v>155</v>
       </c>
       <c r="E62">
-        <v>-0.9</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>-1</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>5.5</v>
+      </c>
+      <c r="J62">
+        <v>1.5</v>
+      </c>
+      <c r="K62">
+        <v>8</v>
+      </c>
+      <c r="L62">
+        <v>-1</v>
+      </c>
+      <c r="M62">
         <v>7</v>
       </c>
-      <c r="I62">
-        <v>2.7</v>
-      </c>
-      <c r="J62" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62">
-        <v>-0.9</v>
-      </c>
-      <c r="L62" t="s">
-        <v>6</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
-        <v>7</v>
+      <c r="N62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3737,34 +3933,34 @@
         <v>155</v>
       </c>
       <c r="E63">
-        <v>4.5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>2.5</v>
       </c>
       <c r="G63">
-        <v>3.6</v>
-      </c>
-      <c r="H63" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0.9</v>
-      </c>
-      <c r="J63" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
       </c>
       <c r="K63">
-        <v>2.7</v>
-      </c>
-      <c r="L63" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>1.5</v>
       </c>
       <c r="M63">
-        <v>2.7</v>
-      </c>
-      <c r="N63" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N63">
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3781,34 +3977,34 @@
         <v>155</v>
       </c>
       <c r="E64">
-        <v>-0.9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="F64">
+        <v>-0.5</v>
       </c>
       <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>-0.9</v>
-      </c>
-      <c r="L64" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="L64">
+        <v>-0.5</v>
       </c>
       <c r="M64">
-        <v>-0.9</v>
-      </c>
-      <c r="N64" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="N64">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3825,34 +4021,34 @@
         <v>155</v>
       </c>
       <c r="E65">
-        <v>2.7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>2.7</v>
-      </c>
-      <c r="H65" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>1.5</v>
       </c>
       <c r="I65">
-        <v>1.8</v>
-      </c>
-      <c r="J65" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
-      </c>
-      <c r="L65" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>1.8</v>
-      </c>
-      <c r="N65" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3869,34 +4065,34 @@
         <v>155</v>
       </c>
       <c r="E66">
-        <v>3.6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>3.6</v>
-      </c>
-      <c r="H66" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2.7</v>
-      </c>
-      <c r="J66" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J66">
+        <v>1.5</v>
       </c>
       <c r="K66">
-        <v>1.8</v>
-      </c>
-      <c r="L66" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>2.7</v>
-      </c>
-      <c r="N66" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N66">
+        <v>1.5</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3913,34 +4109,34 @@
         <v>155</v>
       </c>
       <c r="E67">
-        <v>2.7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>2.7</v>
-      </c>
-      <c r="H67" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H67">
+        <v>1.5</v>
       </c>
       <c r="I67">
-        <v>0.9</v>
-      </c>
-      <c r="J67" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>0.5</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
-      </c>
-      <c r="L67" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>1.8</v>
-      </c>
-      <c r="N67" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3957,34 +4153,34 @@
         <v>155</v>
       </c>
       <c r="E68">
-        <v>5.399999999999999</v>
-      </c>
-      <c r="F68" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F68">
+        <v>3.5</v>
       </c>
       <c r="G68">
-        <v>3.6</v>
-      </c>
-      <c r="H68" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>1.8</v>
-      </c>
-      <c r="N68" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4001,34 +4197,34 @@
         <v>155</v>
       </c>
       <c r="E69">
-        <v>5.399999999999999</v>
-      </c>
-      <c r="F69" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
       </c>
       <c r="G69">
-        <v>1.8</v>
-      </c>
-      <c r="H69" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1.8</v>
-      </c>
-      <c r="J69" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" t="s">
-        <v>7</v>
+        <v>7.5</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>1.8</v>
-      </c>
-      <c r="N69" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4045,34 +4241,34 @@
         <v>155</v>
       </c>
       <c r="E70">
+        <v>5.5</v>
+      </c>
+      <c r="F70">
+        <v>2.5</v>
+      </c>
+      <c r="G70">
         <v>4.5</v>
       </c>
-      <c r="F70" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70">
-        <v>2.7</v>
-      </c>
-      <c r="H70" t="s">
-        <v>5</v>
+      <c r="H70">
+        <v>1.5</v>
       </c>
       <c r="I70">
-        <v>2.7</v>
-      </c>
-      <c r="J70" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>1.5</v>
       </c>
       <c r="K70">
-        <v>-0.9</v>
-      </c>
-      <c r="L70" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L70">
+        <v>-0.5</v>
       </c>
       <c r="M70">
-        <v>1.8</v>
-      </c>
-      <c r="N70" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4089,34 +4285,34 @@
         <v>155</v>
       </c>
       <c r="E71">
-        <v>3.6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>2.7</v>
-      </c>
-      <c r="H71" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H71">
+        <v>1.5</v>
       </c>
       <c r="I71">
-        <v>2.7</v>
-      </c>
-      <c r="J71" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>1.5</v>
       </c>
       <c r="K71">
-        <v>1.8</v>
-      </c>
-      <c r="L71" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>2.7</v>
-      </c>
-      <c r="N71" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N71">
+        <v>1.5</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4133,34 +4329,34 @@
         <v>155</v>
       </c>
       <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>2.5</v>
+      </c>
+      <c r="G72">
         <v>4.5</v>
       </c>
-      <c r="F72" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72">
-        <v>3.6</v>
-      </c>
-      <c r="H72" t="s">
-        <v>5</v>
+      <c r="H72">
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2.7</v>
-      </c>
-      <c r="J72" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="J72">
+        <v>1.5</v>
       </c>
       <c r="K72">
-        <v>3.6</v>
-      </c>
-      <c r="L72" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>3.6</v>
-      </c>
-      <c r="N72" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4177,34 +4373,34 @@
         <v>155</v>
       </c>
       <c r="E73">
-        <v>0.9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>5</v>
+        <v>8.5</v>
+      </c>
+      <c r="F73">
+        <v>0.5</v>
       </c>
       <c r="G73">
-        <v>0.9</v>
-      </c>
-      <c r="H73" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1.8</v>
-      </c>
-      <c r="J73" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>-0.9</v>
-      </c>
-      <c r="L73" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="L73">
+        <v>-0.5</v>
       </c>
       <c r="M73">
-        <v>0.9</v>
-      </c>
-      <c r="N73" t="s">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="N73">
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4221,34 +4417,34 @@
         <v>155</v>
       </c>
       <c r="E74">
-        <v>0.9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F74">
+        <v>0.5</v>
       </c>
       <c r="G74">
-        <v>2.7</v>
-      </c>
-      <c r="H74" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>1.5</v>
       </c>
       <c r="I74">
-        <v>1.8</v>
-      </c>
-      <c r="J74" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>-1.8</v>
-      </c>
-      <c r="L74" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="L74">
+        <v>-2</v>
       </c>
       <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4265,34 +4461,34 @@
         <v>155</v>
       </c>
       <c r="E75">
-        <v>1.8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F75">
+        <v>1.5</v>
       </c>
       <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1.8</v>
-      </c>
-      <c r="J75" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>-0.9</v>
-      </c>
-      <c r="L75" t="s">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="L75">
+        <v>-0.5</v>
       </c>
       <c r="M75">
-        <v>0.9</v>
-      </c>
-      <c r="N75" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N75">
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4309,34 +4505,34 @@
         <v>155</v>
       </c>
       <c r="E76">
-        <v>4.5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>1.8</v>
-      </c>
-      <c r="H76" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1.8</v>
-      </c>
-      <c r="L76" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>1.8</v>
-      </c>
-      <c r="N76" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4353,34 +4549,34 @@
         <v>155</v>
       </c>
       <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <v>7</v>
       </c>
-      <c r="G77">
-        <v>0.9</v>
-      </c>
-      <c r="H77" t="s">
-        <v>5</v>
+      <c r="H77">
+        <v>0.5</v>
       </c>
       <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>-0.9</v>
-      </c>
-      <c r="L77" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <v>-1</v>
       </c>
       <c r="M77">
-        <v>-0.9</v>
-      </c>
-      <c r="N77" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="N77">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4397,34 +4593,34 @@
         <v>155</v>
       </c>
       <c r="E78">
-        <v>-0.9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>-0.5</v>
       </c>
       <c r="G78">
-        <v>-0.9</v>
-      </c>
-      <c r="H78" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="H78">
+        <v>-0.5</v>
       </c>
       <c r="I78">
-        <v>1.8</v>
-      </c>
-      <c r="J78" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>-0.9</v>
-      </c>
-      <c r="L78" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="L78">
+        <v>-0.5</v>
       </c>
       <c r="M78">
-        <v>-0.9</v>
-      </c>
-      <c r="N78" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="N78">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4441,34 +4637,34 @@
         <v>155</v>
       </c>
       <c r="E79">
-        <v>-0.9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="F79">
+        <v>-0.5</v>
       </c>
       <c r="G79">
-        <v>-0.9</v>
-      </c>
-      <c r="H79" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="H79">
+        <v>-1</v>
       </c>
       <c r="I79">
-        <v>0.9</v>
-      </c>
-      <c r="J79" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J79">
+        <v>0.5</v>
       </c>
       <c r="K79">
-        <v>-0.9</v>
-      </c>
-      <c r="L79" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="L79">
+        <v>-1</v>
       </c>
       <c r="M79">
-        <v>-0.9</v>
-      </c>
-      <c r="N79" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="N79">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4485,34 +4681,34 @@
         <v>155</v>
       </c>
       <c r="E80">
-        <v>0.9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0.9</v>
-      </c>
-      <c r="H80" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2.7</v>
-      </c>
-      <c r="J80" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
-      </c>
-      <c r="L80" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L80">
+        <v>1.5</v>
       </c>
       <c r="M80">
-        <v>0.9</v>
-      </c>
-      <c r="N80" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4529,34 +4725,34 @@
         <v>155</v>
       </c>
       <c r="E81">
-        <v>-1.8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="F81">
+        <v>-2</v>
       </c>
       <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>8</v>
+      </c>
+      <c r="L81">
+        <v>-1.5</v>
+      </c>
+      <c r="M81">
         <v>7</v>
       </c>
-      <c r="I81">
-        <v>1.8</v>
-      </c>
-      <c r="J81" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81">
-        <v>-1.8</v>
-      </c>
-      <c r="L81" t="s">
-        <v>6</v>
-      </c>
-      <c r="M81">
-        <v>-0.9</v>
-      </c>
-      <c r="N81" t="s">
-        <v>6</v>
+      <c r="N81">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4573,34 +4769,34 @@
         <v>155</v>
       </c>
       <c r="E82">
-        <v>0.9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>-2.7</v>
-      </c>
-      <c r="H82" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="H82">
+        <v>-2.5</v>
       </c>
       <c r="I82">
-        <v>0.9</v>
-      </c>
-      <c r="J82" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>0.5</v>
       </c>
       <c r="K82">
-        <v>-0.9</v>
-      </c>
-      <c r="L82" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L82">
+        <v>-0.5</v>
       </c>
       <c r="M82">
-        <v>-0.9</v>
-      </c>
-      <c r="N82" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="N82">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4617,34 +4813,34 @@
         <v>154</v>
       </c>
       <c r="E83">
-        <v>-0.9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>-0.5</v>
       </c>
       <c r="G83">
-        <v>1.8</v>
-      </c>
-      <c r="H83" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0.9</v>
-      </c>
-      <c r="J83" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="J83">
+        <v>0.5</v>
       </c>
       <c r="K83">
-        <v>-0.9</v>
-      </c>
-      <c r="L83" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="L83">
+        <v>-1</v>
       </c>
       <c r="M83">
-        <v>-0.9</v>
-      </c>
-      <c r="N83" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="N83">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4661,34 +4857,34 @@
         <v>154</v>
       </c>
       <c r="E84">
-        <v>0.9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>5</v>
+        <v>8.5</v>
+      </c>
+      <c r="F84">
+        <v>0.5</v>
       </c>
       <c r="G84">
-        <v>-1.8</v>
-      </c>
-      <c r="H84" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="H84">
+        <v>-1.5</v>
       </c>
       <c r="I84">
-        <v>-0.9</v>
-      </c>
-      <c r="J84" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <v>-0.5</v>
       </c>
       <c r="K84">
-        <v>-0.9</v>
-      </c>
-      <c r="L84" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="L84">
+        <v>-0.5</v>
       </c>
       <c r="M84">
-        <v>-0.9</v>
-      </c>
-      <c r="N84" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="N84">
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4705,34 +4901,34 @@
         <v>154</v>
       </c>
       <c r="E85">
-        <v>0.9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="F85">
+        <v>0.5</v>
       </c>
       <c r="G85">
-        <v>-1.8</v>
-      </c>
-      <c r="H85" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="H85">
+        <v>-1.5</v>
       </c>
       <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
         <v>7</v>
       </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
         <v>7</v>
       </c>
-      <c r="M85">
-        <v>-0.9</v>
-      </c>
-      <c r="N85" t="s">
-        <v>6</v>
+      <c r="N85">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4749,34 +4945,34 @@
         <v>154</v>
       </c>
       <c r="E86">
-        <v>0.9</v>
-      </c>
-      <c r="F86" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
         <v>7</v>
       </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
       <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>7.5</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
         <v>7</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86" t="s">
-        <v>7</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
-        <v>7</v>
+      <c r="N86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4793,34 +4989,34 @@
         <v>154</v>
       </c>
       <c r="E87">
-        <v>2.7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>1.8</v>
-      </c>
-      <c r="H87" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <v>1.5</v>
       </c>
       <c r="I87">
-        <v>2.7</v>
-      </c>
-      <c r="J87" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J87">
+        <v>1.5</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
-      </c>
-      <c r="L87" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>1.8</v>
-      </c>
-      <c r="N87" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N87">
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4837,34 +5033,34 @@
         <v>154</v>
       </c>
       <c r="E88">
-        <v>0.9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F88">
+        <v>0.5</v>
       </c>
       <c r="G88">
-        <v>2.7</v>
-      </c>
-      <c r="H88" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>1.5</v>
       </c>
       <c r="I88">
-        <v>0.9</v>
-      </c>
-      <c r="J88" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J88">
+        <v>0.5</v>
       </c>
       <c r="K88">
-        <v>0.9</v>
-      </c>
-      <c r="L88" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L88">
+        <v>0.5</v>
       </c>
       <c r="M88">
-        <v>1.8</v>
-      </c>
-      <c r="N88" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4881,34 +5077,34 @@
         <v>154</v>
       </c>
       <c r="E89">
-        <v>-1.8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="F89">
+        <v>-2</v>
       </c>
       <c r="G89">
-        <v>0.9</v>
-      </c>
-      <c r="H89" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
       </c>
       <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>6</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
         <v>7</v>
       </c>
-      <c r="K89">
-        <v>1.8</v>
-      </c>
-      <c r="L89" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89">
-        <v>-0.9</v>
-      </c>
-      <c r="N89" t="s">
-        <v>6</v>
+      <c r="N89">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4925,34 +5121,34 @@
         <v>154</v>
       </c>
       <c r="E90">
-        <v>1.8</v>
-      </c>
-      <c r="F90" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>2.7</v>
-      </c>
-      <c r="H90" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>1.5</v>
       </c>
       <c r="I90">
-        <v>0.9</v>
-      </c>
-      <c r="J90" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J90">
+        <v>0.5</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
-      </c>
-      <c r="L90" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>1.8</v>
-      </c>
-      <c r="N90" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4969,34 +5165,34 @@
         <v>154</v>
       </c>
       <c r="E91">
-        <v>1.8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>1.8</v>
-      </c>
-      <c r="H91" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1.8</v>
-      </c>
-      <c r="J91" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>0.9</v>
-      </c>
-      <c r="N91" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N91">
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5013,34 +5209,34 @@
         <v>154</v>
       </c>
       <c r="E92">
-        <v>2.7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F92">
+        <v>1.5</v>
       </c>
       <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1.8</v>
-      </c>
-      <c r="J92" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
       </c>
       <c r="K92">
-        <v>0.9</v>
-      </c>
-      <c r="L92" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L92">
+        <v>0.5</v>
       </c>
       <c r="M92">
-        <v>0.9</v>
-      </c>
-      <c r="N92" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5057,34 +5253,34 @@
         <v>154</v>
       </c>
       <c r="E93">
-        <v>0.9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F93">
+        <v>0.5</v>
       </c>
       <c r="G93">
-        <v>1.8</v>
-      </c>
-      <c r="H93" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1.8</v>
-      </c>
-      <c r="J93" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>2.7</v>
-      </c>
-      <c r="L93" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L93">
+        <v>1.5</v>
       </c>
       <c r="M93">
-        <v>1.8</v>
-      </c>
-      <c r="N93" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5101,34 +5297,34 @@
         <v>154</v>
       </c>
       <c r="E94">
-        <v>-0.9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="F94">
+        <v>-0.5</v>
       </c>
       <c r="G94">
-        <v>-0.9</v>
-      </c>
-      <c r="H94" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H94">
+        <v>-0.5</v>
       </c>
       <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>6.5</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
         <v>7</v>
       </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94" t="s">
-        <v>7</v>
-      </c>
-      <c r="M94">
-        <v>-0.9</v>
-      </c>
-      <c r="N94" t="s">
-        <v>6</v>
+      <c r="N94">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5145,34 +5341,34 @@
         <v>154</v>
       </c>
       <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>7.5</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
         <v>7</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="L95">
+        <v>0.5</v>
+      </c>
+      <c r="M95">
         <v>7</v>
       </c>
-      <c r="I95">
-        <v>1.8</v>
-      </c>
-      <c r="J95" t="s">
-        <v>5</v>
-      </c>
-      <c r="K95">
-        <v>0.9</v>
-      </c>
-      <c r="L95" t="s">
-        <v>5</v>
-      </c>
-      <c r="M95">
-        <v>0.9</v>
-      </c>
-      <c r="N95" t="s">
-        <v>5</v>
+      <c r="N95">
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5189,34 +5385,34 @@
         <v>154</v>
       </c>
       <c r="E96">
-        <v>2.7</v>
-      </c>
-      <c r="F96" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>1.5</v>
       </c>
       <c r="G96">
-        <v>1.8</v>
-      </c>
-      <c r="H96" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0.9</v>
-      </c>
-      <c r="J96" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J96">
+        <v>0.5</v>
       </c>
       <c r="K96">
-        <v>1.8</v>
-      </c>
-      <c r="L96" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>1.8</v>
-      </c>
-      <c r="N96" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5233,34 +5429,34 @@
         <v>154</v>
       </c>
       <c r="E97">
-        <v>3.6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>1.8</v>
-      </c>
-      <c r="H97" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>1.8</v>
-      </c>
-      <c r="L97" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
       </c>
       <c r="M97">
-        <v>0.9</v>
-      </c>
-      <c r="N97" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N97">
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5277,34 +5473,34 @@
         <v>154</v>
       </c>
       <c r="E98">
-        <v>1.8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0.9</v>
-      </c>
-      <c r="H98" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H98">
+        <v>0.5</v>
       </c>
       <c r="I98">
-        <v>2.7</v>
-      </c>
-      <c r="J98" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <v>1.5</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
-      </c>
-      <c r="L98" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L98">
+        <v>1.5</v>
       </c>
       <c r="M98">
-        <v>1.8</v>
-      </c>
-      <c r="N98" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5321,34 +5517,34 @@
         <v>154</v>
       </c>
       <c r="E99">
-        <v>6.3</v>
-      </c>
-      <c r="F99" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>3.5</v>
       </c>
       <c r="G99">
-        <v>1.8</v>
-      </c>
-      <c r="H99" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2.7</v>
-      </c>
-      <c r="J99" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>1.5</v>
       </c>
       <c r="K99">
-        <v>0.9</v>
-      </c>
-      <c r="L99" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L99">
+        <v>0.5</v>
       </c>
       <c r="M99">
-        <v>2.7</v>
-      </c>
-      <c r="N99" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N99">
+        <v>1.5</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5365,34 +5561,34 @@
         <v>154</v>
       </c>
       <c r="E100">
-        <v>-0.9</v>
-      </c>
-      <c r="F100" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="F100">
+        <v>-0.5</v>
       </c>
       <c r="G100">
-        <v>-1.8</v>
-      </c>
-      <c r="H100" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="H100">
+        <v>-1.5</v>
       </c>
       <c r="I100">
-        <v>-0.9</v>
-      </c>
-      <c r="J100" t="s">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="J100">
+        <v>-0.5</v>
       </c>
       <c r="K100">
-        <v>-0.9</v>
-      </c>
-      <c r="L100" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="L100">
+        <v>-0.5</v>
       </c>
       <c r="M100">
-        <v>-0.9</v>
-      </c>
-      <c r="N100" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="N100">
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5409,34 +5605,34 @@
         <v>154</v>
       </c>
       <c r="E101">
-        <v>2.7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F101">
+        <v>1.5</v>
       </c>
       <c r="G101">
-        <v>0.9</v>
-      </c>
-      <c r="H101" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H101">
+        <v>0.5</v>
       </c>
       <c r="I101">
-        <v>0.9</v>
-      </c>
-      <c r="J101" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>0.5</v>
       </c>
       <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101" t="s">
         <v>7</v>
       </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
       <c r="M101">
-        <v>1.8</v>
-      </c>
-      <c r="N101" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5453,34 +5649,34 @@
         <v>154</v>
       </c>
       <c r="E102">
-        <v>1.8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>2.7</v>
-      </c>
-      <c r="H102" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H102">
+        <v>1.5</v>
       </c>
       <c r="I102">
-        <v>1.8</v>
-      </c>
-      <c r="J102" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>0.9</v>
-      </c>
-      <c r="L102" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L102">
+        <v>0.5</v>
       </c>
       <c r="M102">
-        <v>0.9</v>
-      </c>
-      <c r="N102" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N102">
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5497,34 +5693,34 @@
         <v>154</v>
       </c>
       <c r="E103">
-        <v>1.8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>2.7</v>
-      </c>
-      <c r="H103" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <v>1.5</v>
       </c>
       <c r="I103">
-        <v>1.8</v>
-      </c>
-      <c r="J103" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>1.8</v>
-      </c>
-      <c r="L103" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
       </c>
       <c r="M103">
-        <v>1.8</v>
-      </c>
-      <c r="N103" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5541,34 +5737,34 @@
         <v>154</v>
       </c>
       <c r="E104">
-        <v>-0.9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <v>-0.5</v>
       </c>
       <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
-      </c>
-      <c r="L104" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5585,34 +5781,34 @@
         <v>154</v>
       </c>
       <c r="E105">
-        <v>1.8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>2.7</v>
-      </c>
-      <c r="H105" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H105">
+        <v>1.5</v>
       </c>
       <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>-0.9</v>
-      </c>
-      <c r="L105" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="L105">
+        <v>-1</v>
       </c>
       <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5629,34 +5825,34 @@
         <v>154</v>
       </c>
       <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
         <v>7</v>
       </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106" t="s">
-        <v>7</v>
+      <c r="H106">
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1.8</v>
-      </c>
-      <c r="J106" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>0.9</v>
-      </c>
-      <c r="L106" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L106">
+        <v>0.5</v>
       </c>
       <c r="M106">
-        <v>0.9</v>
-      </c>
-      <c r="N106" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="N106">
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5673,34 +5869,34 @@
         <v>154</v>
       </c>
       <c r="E107">
-        <v>1.8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>2.7</v>
-      </c>
-      <c r="H107" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H107">
+        <v>1.5</v>
       </c>
       <c r="I107">
-        <v>0.9</v>
-      </c>
-      <c r="J107" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J107">
+        <v>0.5</v>
       </c>
       <c r="K107">
-        <v>1.8</v>
-      </c>
-      <c r="L107" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
       </c>
       <c r="M107">
-        <v>1.8</v>
-      </c>
-      <c r="N107" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5717,34 +5913,34 @@
         <v>154</v>
       </c>
       <c r="E108">
-        <v>2.7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="F108">
+        <v>1.5</v>
       </c>
       <c r="G108">
-        <v>2.7</v>
-      </c>
-      <c r="H108" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H108">
+        <v>1.5</v>
       </c>
       <c r="I108">
-        <v>0.9</v>
-      </c>
-      <c r="J108" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J108">
+        <v>0.5</v>
       </c>
       <c r="K108">
-        <v>3.6</v>
-      </c>
-      <c r="L108" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
-      </c>
-      <c r="N108" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5761,34 +5957,34 @@
         <v>154</v>
       </c>
       <c r="E109">
-        <v>0.9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F109">
+        <v>0.5</v>
       </c>
       <c r="G109">
-        <v>1.8</v>
-      </c>
-      <c r="H109" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2.7</v>
-      </c>
-      <c r="J109" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J109">
+        <v>1.5</v>
       </c>
       <c r="K109">
-        <v>2.7</v>
-      </c>
-      <c r="L109" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L109">
+        <v>1.5</v>
       </c>
       <c r="M109">
-        <v>1.8</v>
-      </c>
-      <c r="N109" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5805,34 +6001,34 @@
         <v>154</v>
       </c>
       <c r="E110">
-        <v>1.8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0.9</v>
-      </c>
-      <c r="H110" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H110">
+        <v>0.5</v>
       </c>
       <c r="I110">
-        <v>0.9</v>
-      </c>
-      <c r="J110" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J110">
+        <v>0.5</v>
       </c>
       <c r="K110">
-        <v>2.7</v>
-      </c>
-      <c r="L110" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L110">
+        <v>1.5</v>
       </c>
       <c r="M110">
-        <v>0.9</v>
-      </c>
-      <c r="N110" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N110">
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5849,34 +6045,34 @@
         <v>154</v>
       </c>
       <c r="E111">
-        <v>4.5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>2.5</v>
       </c>
       <c r="G111">
-        <v>1.8</v>
-      </c>
-      <c r="H111" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>3.6</v>
-      </c>
-      <c r="J111" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
       </c>
       <c r="K111">
-        <v>3.6</v>
-      </c>
-      <c r="L111" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
       </c>
       <c r="M111">
-        <v>3.6</v>
-      </c>
-      <c r="N111" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5893,34 +6089,34 @@
         <v>154</v>
       </c>
       <c r="E112">
-        <v>3.6</v>
-      </c>
-      <c r="F112" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F112">
+        <v>2.5</v>
       </c>
       <c r="G112">
-        <v>1.8</v>
-      </c>
-      <c r="H112" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0.9</v>
-      </c>
-      <c r="J112" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J112">
+        <v>0.5</v>
       </c>
       <c r="K112">
-        <v>5.399999999999999</v>
-      </c>
-      <c r="L112" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
       </c>
       <c r="M112">
-        <v>1.8</v>
-      </c>
-      <c r="N112" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5937,34 +6133,34 @@
         <v>154</v>
       </c>
       <c r="E113">
-        <v>1.8</v>
-      </c>
-      <c r="F113" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113" t="s">
         <v>7</v>
       </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
       <c r="I113">
-        <v>0.9</v>
-      </c>
-      <c r="J113" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J113">
+        <v>0.5</v>
       </c>
       <c r="K113">
-        <v>0.9</v>
-      </c>
-      <c r="L113" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L113">
+        <v>0.5</v>
       </c>
       <c r="M113">
-        <v>0.9</v>
-      </c>
-      <c r="N113" t="s">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="N113">
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5981,34 +6177,34 @@
         <v>154</v>
       </c>
       <c r="E114">
-        <v>3.6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>1.8</v>
-      </c>
-      <c r="H114" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
       </c>
       <c r="M114">
-        <v>1.8</v>
-      </c>
-      <c r="N114" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6025,34 +6221,34 @@
         <v>154</v>
       </c>
       <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>6</v>
+      </c>
+      <c r="H115">
+        <v>0.5</v>
+      </c>
+      <c r="I115">
+        <v>5.5</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
         <v>7</v>
       </c>
-      <c r="G115">
-        <v>0.9</v>
-      </c>
-      <c r="H115" t="s">
-        <v>5</v>
-      </c>
-      <c r="I115">
-        <v>1.8</v>
-      </c>
-      <c r="J115" t="s">
-        <v>5</v>
-      </c>
-      <c r="K115">
-        <v>-0.9</v>
-      </c>
-      <c r="L115" t="s">
-        <v>6</v>
+      <c r="L115">
+        <v>-0.5</v>
       </c>
       <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6069,34 +6265,34 @@
         <v>154</v>
       </c>
       <c r="E116">
-        <v>4.5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
       </c>
       <c r="G116">
-        <v>1.8</v>
-      </c>
-      <c r="H116" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1.8</v>
-      </c>
-      <c r="J116" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
-      </c>
-      <c r="L116" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
       </c>
       <c r="M116">
-        <v>2.7</v>
-      </c>
-      <c r="N116" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N116">
+        <v>1.5</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6113,34 +6309,34 @@
         <v>154</v>
       </c>
       <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117" t="s">
         <v>7</v>
       </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
       <c r="G117">
-        <v>0.9</v>
-      </c>
-      <c r="H117" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H117">
+        <v>0.5</v>
       </c>
       <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>-0.9</v>
-      </c>
-      <c r="L117" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="L117">
+        <v>-0.5</v>
       </c>
       <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117" t="s">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6157,34 +6353,34 @@
         <v>154</v>
       </c>
       <c r="E118">
-        <v>1.8</v>
-      </c>
-      <c r="F118" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>1.8</v>
-      </c>
-      <c r="H118" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>0.9</v>
-      </c>
-      <c r="J118" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J118">
+        <v>0.5</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
-      </c>
-      <c r="L118" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
       </c>
       <c r="M118">
-        <v>0.9</v>
-      </c>
-      <c r="N118" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N118">
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6201,34 +6397,34 @@
         <v>154</v>
       </c>
       <c r="E119">
-        <v>0.9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F119">
+        <v>0.5</v>
       </c>
       <c r="G119">
-        <v>1.8</v>
-      </c>
-      <c r="H119" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1.8</v>
-      </c>
-      <c r="J119" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
       </c>
       <c r="K119">
-        <v>0.9</v>
-      </c>
-      <c r="L119" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L119">
+        <v>0.5</v>
       </c>
       <c r="M119">
-        <v>0.9</v>
-      </c>
-      <c r="N119" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N119">
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6245,34 +6441,34 @@
         <v>154</v>
       </c>
       <c r="E120">
-        <v>3.6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>3.6</v>
-      </c>
-      <c r="H120" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>3.6</v>
-      </c>
-      <c r="J120" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
       </c>
       <c r="K120">
-        <v>0.9</v>
-      </c>
-      <c r="L120" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L120">
+        <v>0.5</v>
       </c>
       <c r="M120">
-        <v>2.7</v>
-      </c>
-      <c r="N120" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N120">
+        <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6289,34 +6485,34 @@
         <v>154</v>
       </c>
       <c r="E121">
-        <v>1.8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>2.7</v>
-      </c>
-      <c r="H121" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>1.5</v>
       </c>
       <c r="I121">
-        <v>1.8</v>
-      </c>
-      <c r="J121" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
       </c>
       <c r="K121">
-        <v>1.8</v>
-      </c>
-      <c r="L121" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>1.8</v>
-      </c>
-      <c r="N121" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6333,34 +6529,34 @@
         <v>154</v>
       </c>
       <c r="E122">
-        <v>4.5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>2.5</v>
       </c>
       <c r="G122">
-        <v>0.9</v>
-      </c>
-      <c r="H122" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H122">
+        <v>0.5</v>
       </c>
       <c r="I122">
-        <v>1.8</v>
-      </c>
-      <c r="J122" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
       </c>
       <c r="K122">
-        <v>2.7</v>
-      </c>
-      <c r="L122" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L122">
+        <v>1.5</v>
       </c>
       <c r="M122">
-        <v>1.8</v>
-      </c>
-      <c r="N122" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6377,34 +6573,34 @@
         <v>154</v>
       </c>
       <c r="E123">
-        <v>1.8</v>
-      </c>
-      <c r="F123" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>1.8</v>
-      </c>
-      <c r="H123" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0.9</v>
-      </c>
-      <c r="J123" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J123">
+        <v>0.5</v>
       </c>
       <c r="K123">
-        <v>1.8</v>
-      </c>
-      <c r="L123" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>1.8</v>
-      </c>
-      <c r="N123" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6421,34 +6617,34 @@
         <v>154</v>
       </c>
       <c r="E124">
-        <v>7.2</v>
-      </c>
-      <c r="F124" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
       </c>
       <c r="G124">
-        <v>0.9</v>
-      </c>
-      <c r="H124" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>0.5</v>
       </c>
       <c r="I124">
-        <v>1.8</v>
-      </c>
-      <c r="J124" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>1.8</v>
-      </c>
-      <c r="L124" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
       </c>
       <c r="M124">
-        <v>1.8</v>
-      </c>
-      <c r="N124" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6465,34 +6661,34 @@
         <v>154</v>
       </c>
       <c r="E125">
-        <v>1.8</v>
-      </c>
-      <c r="F125" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>0.9</v>
-      </c>
-      <c r="H125" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H125">
+        <v>0.5</v>
       </c>
       <c r="I125">
-        <v>1.8</v>
-      </c>
-      <c r="J125" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
       </c>
       <c r="K125">
-        <v>3.6</v>
-      </c>
-      <c r="L125" t="s">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
       </c>
       <c r="M125">
-        <v>1.8</v>
-      </c>
-      <c r="N125" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6509,34 +6705,34 @@
         <v>154</v>
       </c>
       <c r="E126">
-        <v>3.6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1.8</v>
-      </c>
-      <c r="J126" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
-      </c>
-      <c r="L126" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
       </c>
       <c r="M126">
-        <v>1.8</v>
-      </c>
-      <c r="N126" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6553,34 +6749,34 @@
         <v>154</v>
       </c>
       <c r="E127">
-        <v>2.7</v>
-      </c>
-      <c r="F127" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>1.8</v>
-      </c>
-      <c r="H127" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2.7</v>
-      </c>
-      <c r="J127" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J127">
+        <v>1.5</v>
       </c>
       <c r="K127">
-        <v>2.7</v>
-      </c>
-      <c r="L127" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L127">
+        <v>1.5</v>
       </c>
       <c r="M127">
-        <v>1.8</v>
-      </c>
-      <c r="N127" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6597,34 +6793,34 @@
         <v>154</v>
       </c>
       <c r="E128">
-        <v>3.6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
       </c>
       <c r="G128">
-        <v>3.6</v>
-      </c>
-      <c r="H128" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>2.7</v>
-      </c>
-      <c r="J128" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J128">
+        <v>1.5</v>
       </c>
       <c r="K128">
-        <v>2.7</v>
-      </c>
-      <c r="L128" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="L128">
+        <v>1.5</v>
       </c>
       <c r="M128">
-        <v>3.6</v>
-      </c>
-      <c r="N128" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6641,34 +6837,34 @@
         <v>154</v>
       </c>
       <c r="E129">
-        <v>0.9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F129">
+        <v>0.5</v>
       </c>
       <c r="G129">
-        <v>1.8</v>
-      </c>
-      <c r="H129" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1.8</v>
-      </c>
-      <c r="J129" t="s">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
       </c>
       <c r="K129">
-        <v>-0.9</v>
-      </c>
-      <c r="L129" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L129">
+        <v>-0.5</v>
       </c>
       <c r="M129">
-        <v>0.9</v>
-      </c>
-      <c r="N129" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N129">
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6685,38 +6881,38 @@
         <v>156</v>
       </c>
       <c r="E130">
-        <v>-0.9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="F130">
+        <v>-1</v>
       </c>
       <c r="G130">
-        <v>-0.9</v>
-      </c>
-      <c r="H130" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="H130">
+        <v>-1</v>
       </c>
       <c r="I130">
-        <v>-0.9</v>
-      </c>
-      <c r="J130" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="J130">
+        <v>-1</v>
       </c>
       <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130" t="s">
-        <v>7</v>
+        <v>8.5</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>-0.9</v>
-      </c>
-      <c r="N130" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="N130">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C130">
+  <conditionalFormatting sqref="F2:F130">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6728,7 +6924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E130">
+  <conditionalFormatting sqref="H2:H130">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6740,7 +6936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G130">
+  <conditionalFormatting sqref="J2:J130">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6752,7 +6948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I130">
+  <conditionalFormatting sqref="L2:L130">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6764,7 +6960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K130">
+  <conditionalFormatting sqref="N2:N130">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6781,4 +6977,17 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Student Improvement Status.xlsx
+++ b/Student Improvement Status.xlsx
@@ -1123,13 +1123,13 @@
         <v>95</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>83</v>
       </c>
       <c r="F2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1143,7 +1143,7 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>24</v>
@@ -1163,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>22</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1308,7 @@
         <v>5.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1440,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1452,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1572,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>5.5</v>
@@ -1616,7 +1616,7 @@
         <v>5.5</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>6.5</v>
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1792,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2012,7 +2012,7 @@
         <v>5.5</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K19">
         <v>7</v>
@@ -2144,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2188,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="J23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K23">
         <v>5.5</v>
@@ -2320,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="J26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -2804,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3068,7 +3068,7 @@
         <v>5.5</v>
       </c>
       <c r="J43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>6</v>
@@ -3200,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -3288,7 +3288,7 @@
         <v>5.5</v>
       </c>
       <c r="J48">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>4.5</v>
@@ -3464,7 +3464,7 @@
         <v>5.5</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -3640,7 +3640,7 @@
         <v>6</v>
       </c>
       <c r="J56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -4036,7 +4036,7 @@
         <v>5</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K65">
         <v>5.5</v>
@@ -4124,7 +4124,7 @@
         <v>6</v>
       </c>
       <c r="J67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>6</v>
@@ -4168,7 +4168,7 @@
         <v>6</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="K68">
         <v>6.5</v>
@@ -4212,7 +4212,7 @@
         <v>6.5</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K69">
         <v>7.5</v>
@@ -4300,7 +4300,7 @@
         <v>5</v>
       </c>
       <c r="J71">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K71">
         <v>6</v>
@@ -4388,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K73">
         <v>7.5</v>
@@ -4564,7 +4564,7 @@
         <v>6.5</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="K77">
         <v>9</v>
@@ -4696,7 +4696,7 @@
         <v>6.5</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K80">
         <v>6.5</v>
@@ -4740,7 +4740,7 @@
         <v>5</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K81">
         <v>8</v>
@@ -4784,7 +4784,7 @@
         <v>6</v>
       </c>
       <c r="J82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>7</v>
@@ -4916,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="K85">
         <v>7</v>
@@ -5356,7 +5356,7 @@
         <v>6</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K95">
         <v>7</v>
@@ -5412,7 +5412,7 @@
         <v>5.5</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5444,7 +5444,7 @@
         <v>5.5</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K97">
         <v>5.5</v>
@@ -5456,7 +5456,7 @@
         <v>5.5</v>
       </c>
       <c r="N97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5620,7 +5620,7 @@
         <v>6</v>
       </c>
       <c r="J101">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K101">
         <v>7</v>
@@ -5796,7 +5796,7 @@
         <v>6</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K105">
         <v>7.5</v>
@@ -6380,7 +6380,7 @@
         <v>5.5</v>
       </c>
       <c r="N118">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6896,7 +6896,7 @@
         <v>8</v>
       </c>
       <c r="J130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="K130">
         <v>8.5</v>
@@ -6908,7 +6908,7 @@
         <v>8</v>
       </c>
       <c r="N130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
